--- a/bookkeeper3.xlsx
+++ b/bookkeeper3.xlsx
@@ -1137,7 +1137,7 @@
         <v>20.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
         <v>1360.0</v>
@@ -1178,7 +1178,7 @@
         <v>56.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G3" t="n">
         <v>2804.0</v>
@@ -1219,7 +1219,7 @@
         <v>12.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G4" t="n">
         <v>160.0</v>
@@ -1260,7 +1260,7 @@
         <v>16.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="n">
         <v>108.0</v>
@@ -1301,7 +1301,7 @@
         <v>36.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G6" t="n">
         <v>584.0</v>
@@ -1342,7 +1342,7 @@
         <v>20.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G7" t="n">
         <v>344.0</v>
@@ -1383,7 +1383,7 @@
         <v>28.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G8" t="n">
         <v>340.0</v>
@@ -1424,7 +1424,7 @@
         <v>20.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G9" t="n">
         <v>140.0</v>
@@ -1465,7 +1465,7 @@
         <v>12.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G10" t="n">
         <v>52.0</v>
@@ -1506,7 +1506,7 @@
         <v>4.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -1547,7 +1547,7 @@
         <v>20.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G12" t="n">
         <v>572.0</v>
@@ -1588,7 +1588,7 @@
         <v>16.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G13" t="n">
         <v>124.0</v>
@@ -1629,7 +1629,7 @@
         <v>16.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" t="n">
         <v>32.0</v>
@@ -1670,7 +1670,7 @@
         <v>36.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G15" t="n">
         <v>2520.0</v>
@@ -1711,7 +1711,7 @@
         <v>24.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G16" t="n">
         <v>3724.0</v>
@@ -1752,7 +1752,7 @@
         <v>8.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G17" t="n">
         <v>12.0</v>
@@ -1793,7 +1793,7 @@
         <v>20.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G18" t="n">
         <v>92.0</v>
@@ -1834,7 +1834,7 @@
         <v>12.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G19" t="n">
         <v>20.0</v>
@@ -1875,7 +1875,7 @@
         <v>32.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G20" t="n">
         <v>172.0</v>
@@ -1916,7 +1916,7 @@
         <v>16.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G21" t="n">
         <v>48.0</v>
@@ -1957,7 +1957,7 @@
         <v>12.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G22" t="n">
         <v>200.0</v>
@@ -1998,7 +1998,7 @@
         <v>48.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G23" t="n">
         <v>3660.0</v>
@@ -2039,7 +2039,7 @@
         <v>28.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G24" t="n">
         <v>360.0</v>
@@ -2080,7 +2080,7 @@
         <v>36.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G25" t="n">
         <v>368.0</v>
@@ -2121,7 +2121,7 @@
         <v>24.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G26" t="n">
         <v>184.0</v>
@@ -2162,7 +2162,7 @@
         <v>16.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G27" t="n">
         <v>36.0</v>
@@ -2203,7 +2203,7 @@
         <v>16.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G28" t="n">
         <v>176.0</v>
@@ -2244,7 +2244,7 @@
         <v>16.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G29" t="n">
         <v>92.0</v>
@@ -2285,7 +2285,7 @@
         <v>24.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G30" t="n">
         <v>508.0</v>
@@ -2326,7 +2326,7 @@
         <v>4.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G31" t="n">
         <v>312.0</v>
@@ -2367,7 +2367,7 @@
         <v>8.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G32" t="n">
         <v>4.0</v>
@@ -2408,7 +2408,7 @@
         <v>8.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G33" t="n">
         <v>4.0</v>
@@ -2449,7 +2449,7 @@
         <v>8.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G34" t="n">
         <v>424.0</v>
@@ -2490,7 +2490,7 @@
         <v>16.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G35" t="n">
         <v>896.0</v>
@@ -2531,7 +2531,7 @@
         <v>16.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G36" t="n">
         <v>1588.0</v>
@@ -2572,7 +2572,7 @@
         <v>8.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G37" t="n">
         <v>1020.0</v>
@@ -2613,7 +2613,7 @@
         <v>4.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G38" t="n">
         <v>772.0</v>
@@ -2654,7 +2654,7 @@
         <v>4.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n">
         <v>2056.0</v>
@@ -2695,7 +2695,7 @@
         <v>4.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
         <v>816.0</v>
@@ -2736,7 +2736,7 @@
         <v>4.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G41" t="n">
         <v>576.0</v>
@@ -2777,7 +2777,7 @@
         <v>4.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
         <v>392.0</v>
@@ -2818,7 +2818,7 @@
         <v>28.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G43" t="n">
         <v>100.0</v>
@@ -2859,7 +2859,7 @@
         <v>16.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G44" t="n">
         <v>348.0</v>
@@ -2900,7 +2900,7 @@
         <v>44.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G45" t="n">
         <v>1120.0</v>
@@ -2941,7 +2941,7 @@
         <v>12.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G46" t="n">
         <v>328.0</v>
@@ -2982,7 +2982,7 @@
         <v>32.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G47" t="n">
         <v>140.0</v>
@@ -3023,7 +3023,7 @@
         <v>36.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G48" t="n">
         <v>440.0</v>
@@ -3064,7 +3064,7 @@
         <v>4.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G49" t="n">
         <v>0.0</v>
@@ -3105,7 +3105,7 @@
         <v>12.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G50" t="n">
         <v>44.0</v>
@@ -3146,7 +3146,7 @@
         <v>12.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G51" t="n">
         <v>44.0</v>
@@ -3187,7 +3187,7 @@
         <v>24.0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G52" t="n">
         <v>284.0</v>
@@ -3228,7 +3228,7 @@
         <v>24.0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G53" t="n">
         <v>932.0</v>
@@ -3269,7 +3269,7 @@
         <v>12.0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G54" t="n">
         <v>20.0</v>
@@ -3310,7 +3310,7 @@
         <v>8.0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G55" t="n">
         <v>20.0</v>
@@ -3351,7 +3351,7 @@
         <v>8.0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G56" t="n">
         <v>16.0</v>
@@ -3392,7 +3392,7 @@
         <v>12.0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G57" t="n">
         <v>44.0</v>
@@ -3433,7 +3433,7 @@
         <v>12.0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G58" t="n">
         <v>16.0</v>
@@ -3474,7 +3474,7 @@
         <v>4.0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G59" t="n">
         <v>376.0</v>
@@ -3515,7 +3515,7 @@
         <v>4.0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G60" t="n">
         <v>168.0</v>
@@ -3556,7 +3556,7 @@
         <v>12.0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G61" t="n">
         <v>224.0</v>
@@ -3597,7 +3597,7 @@
         <v>8.0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G62" t="n">
         <v>268.0</v>
@@ -3638,7 +3638,7 @@
         <v>8.0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G63" t="n">
         <v>1028.0</v>
@@ -3679,7 +3679,7 @@
         <v>12.0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G64" t="n">
         <v>556.0</v>
@@ -3720,7 +3720,7 @@
         <v>16.0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G65" t="n">
         <v>600.0</v>
@@ -3761,7 +3761,7 @@
         <v>12.0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G66" t="n">
         <v>724.0</v>
@@ -3802,7 +3802,7 @@
         <v>8.0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G67" t="n">
         <v>188.0</v>
@@ -3843,7 +3843,7 @@
         <v>20.0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G68" t="n">
         <v>548.0</v>
@@ -3884,7 +3884,7 @@
         <v>12.0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G69" t="n">
         <v>608.0</v>
@@ -3925,7 +3925,7 @@
         <v>8.0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G70" t="n">
         <v>236.0</v>
@@ -3966,7 +3966,7 @@
         <v>8.0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G71" t="n">
         <v>608.0</v>
@@ -4007,7 +4007,7 @@
         <v>8.0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G72" t="n">
         <v>312.0</v>
@@ -4048,7 +4048,7 @@
         <v>4.0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G73" t="n">
         <v>148.0</v>
@@ -4089,7 +4089,7 @@
         <v>8.0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G74" t="n">
         <v>160.0</v>
@@ -4130,7 +4130,7 @@
         <v>8.0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G75" t="n">
         <v>160.0</v>
@@ -4171,7 +4171,7 @@
         <v>16.0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G76" t="n">
         <v>428.0</v>
@@ -4212,7 +4212,7 @@
         <v>16.0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G77" t="n">
         <v>312.0</v>
@@ -4253,7 +4253,7 @@
         <v>12.0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G78" t="n">
         <v>364.0</v>
@@ -4294,7 +4294,7 @@
         <v>16.0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G79" t="n">
         <v>492.0</v>
@@ -4335,7 +4335,7 @@
         <v>24.0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G80" t="n">
         <v>1656.0</v>
@@ -4376,7 +4376,7 @@
         <v>16.0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G81" t="n">
         <v>372.0</v>
@@ -4417,7 +4417,7 @@
         <v>4.0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G82" t="n">
         <v>288.0</v>
@@ -4458,7 +4458,7 @@
         <v>12.0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G83" t="n">
         <v>252.0</v>
@@ -4499,7 +4499,7 @@
         <v>16.0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G84" t="n">
         <v>520.0</v>
@@ -4540,7 +4540,7 @@
         <v>4.0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G85" t="n">
         <v>56.0</v>
@@ -4581,7 +4581,7 @@
         <v>20.0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G86" t="n">
         <v>972.0</v>
@@ -4622,7 +4622,7 @@
         <v>16.0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G87" t="n">
         <v>2580.0</v>
@@ -4663,7 +4663,7 @@
         <v>20.0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G88" t="n">
         <v>1560.0</v>
@@ -4704,7 +4704,7 @@
         <v>16.0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G89" t="n">
         <v>432.0</v>
@@ -4745,7 +4745,7 @@
         <v>4.0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G90" t="n">
         <v>164.0</v>
@@ -4786,7 +4786,7 @@
         <v>8.0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G91" t="n">
         <v>316.0</v>
@@ -4827,7 +4827,7 @@
         <v>12.0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G92" t="n">
         <v>220.0</v>
@@ -4868,7 +4868,7 @@
         <v>8.0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G93" t="n">
         <v>204.0</v>
@@ -4909,7 +4909,7 @@
         <v>16.0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G94" t="n">
         <v>812.0</v>
@@ -4950,7 +4950,7 @@
         <v>4.0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G95" t="n">
         <v>196.0</v>
@@ -4991,7 +4991,7 @@
         <v>4.0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G96" t="n">
         <v>200.0</v>
@@ -5032,7 +5032,7 @@
         <v>8.0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G97" t="n">
         <v>400.0</v>
@@ -5073,7 +5073,7 @@
         <v>4.0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G98" t="n">
         <v>552.0</v>
@@ -5114,7 +5114,7 @@
         <v>4.0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G99" t="n">
         <v>172.0</v>
@@ -5155,7 +5155,7 @@
         <v>4.0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G100" t="n">
         <v>168.0</v>
@@ -5196,7 +5196,7 @@
         <v>4.0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G101" t="n">
         <v>224.0</v>
@@ -5237,7 +5237,7 @@
         <v>8.0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G102" t="n">
         <v>652.0</v>
@@ -5278,7 +5278,7 @@
         <v>8.0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G103" t="n">
         <v>48888.0</v>
@@ -5319,7 +5319,7 @@
         <v>8.0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G104" t="n">
         <v>620.0</v>
@@ -5360,7 +5360,7 @@
         <v>4.0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G105" t="n">
         <v>172.0</v>
@@ -5401,7 +5401,7 @@
         <v>8.0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G106" t="n">
         <v>168.0</v>
@@ -5442,7 +5442,7 @@
         <v>12.0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G107" t="n">
         <v>620.0</v>
@@ -5483,7 +5483,7 @@
         <v>20.0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G108" t="n">
         <v>592.0</v>
@@ -5524,7 +5524,7 @@
         <v>16.0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G109" t="n">
         <v>504.0</v>
@@ -5565,7 +5565,7 @@
         <v>12.0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G110" t="n">
         <v>604.0</v>
@@ -5606,7 +5606,7 @@
         <v>4.0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G111" t="n">
         <v>180.0</v>
@@ -5647,7 +5647,7 @@
         <v>8.0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G112" t="n">
         <v>1160.0</v>
@@ -5688,7 +5688,7 @@
         <v>8.0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G113" t="n">
         <v>140.0</v>
@@ -5729,7 +5729,7 @@
         <v>4.0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G114" t="n">
         <v>444.0</v>
@@ -5770,7 +5770,7 @@
         <v>8.0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G115" t="n">
         <v>144.0</v>
@@ -5811,7 +5811,7 @@
         <v>4.0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G116" t="n">
         <v>324.0</v>
@@ -5852,7 +5852,7 @@
         <v>4.0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G117" t="n">
         <v>108.0</v>
@@ -5893,7 +5893,7 @@
         <v>4.0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G118" t="n">
         <v>112.0</v>
@@ -5934,7 +5934,7 @@
         <v>8.0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G119" t="n">
         <v>120.0</v>
@@ -5975,7 +5975,7 @@
         <v>16.0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G120" t="n">
         <v>2400.0</v>
@@ -6016,7 +6016,7 @@
         <v>8.0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G121" t="n">
         <v>320.0</v>
@@ -6057,7 +6057,7 @@
         <v>8.0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G122" t="n">
         <v>120.0</v>
@@ -6098,7 +6098,7 @@
         <v>8.0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G123" t="n">
         <v>260.0</v>
@@ -6139,7 +6139,7 @@
         <v>8.0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G124" t="n">
         <v>160.0</v>
@@ -6180,7 +6180,7 @@
         <v>8.0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G125" t="n">
         <v>316.0</v>
@@ -6221,7 +6221,7 @@
         <v>12.0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G126" t="n">
         <v>660.0</v>
@@ -6262,7 +6262,7 @@
         <v>8.0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G127" t="n">
         <v>292.0</v>
@@ -6303,7 +6303,7 @@
         <v>24.0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G128" t="n">
         <v>1600.0</v>
@@ -6344,7 +6344,7 @@
         <v>8.0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G129" t="n">
         <v>312.0</v>
@@ -6385,7 +6385,7 @@
         <v>12.0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G130" t="n">
         <v>652.0</v>
@@ -6426,7 +6426,7 @@
         <v>12.0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G131" t="n">
         <v>3544.0</v>
@@ -6467,7 +6467,7 @@
         <v>8.0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G132" t="n">
         <v>304.0</v>
@@ -6508,7 +6508,7 @@
         <v>12.0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G133" t="n">
         <v>388.0</v>
@@ -6549,7 +6549,7 @@
         <v>4.0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G134" t="n">
         <v>88.0</v>
@@ -6590,7 +6590,7 @@
         <v>12.0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G135" t="n">
         <v>1756.0</v>
@@ -6631,7 +6631,7 @@
         <v>4.0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G136" t="n">
         <v>248.0</v>
@@ -6672,7 +6672,7 @@
         <v>8.0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G137" t="n">
         <v>384.0</v>
@@ -6713,7 +6713,7 @@
         <v>8.0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G138" t="n">
         <v>112.0</v>
@@ -6754,7 +6754,7 @@
         <v>8.0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G139" t="n">
         <v>236.0</v>
@@ -6795,7 +6795,7 @@
         <v>8.0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G140" t="n">
         <v>316.0</v>
@@ -6836,7 +6836,7 @@
         <v>12.0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G141" t="n">
         <v>2968.0</v>
@@ -6877,7 +6877,7 @@
         <v>8.0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G142" t="n">
         <v>268.0</v>
@@ -6918,7 +6918,7 @@
         <v>4.0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G143" t="n">
         <v>148.0</v>
@@ -6959,7 +6959,7 @@
         <v>8.0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G144" t="n">
         <v>260.0</v>
@@ -7000,7 +7000,7 @@
         <v>8.0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G145" t="n">
         <v>508.0</v>
@@ -7041,7 +7041,7 @@
         <v>16.0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G146" t="n">
         <v>668.0</v>
@@ -7082,7 +7082,7 @@
         <v>8.0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G147" t="n">
         <v>164.0</v>
@@ -7123,7 +7123,7 @@
         <v>8.0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G148" t="n">
         <v>240.0</v>
@@ -7164,7 +7164,7 @@
         <v>4.0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G149" t="n">
         <v>248.0</v>
@@ -7205,7 +7205,7 @@
         <v>16.0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G150" t="n">
         <v>568.0</v>
@@ -7246,7 +7246,7 @@
         <v>8.0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G151" t="n">
         <v>304.0</v>
@@ -7287,7 +7287,7 @@
         <v>12.0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G152" t="n">
         <v>344.0</v>
@@ -7328,7 +7328,7 @@
         <v>4.0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G153" t="n">
         <v>296.0</v>
@@ -7369,7 +7369,7 @@
         <v>8.0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G154" t="n">
         <v>200.0</v>
@@ -7410,7 +7410,7 @@
         <v>8.0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G155" t="n">
         <v>244.0</v>
@@ -7451,7 +7451,7 @@
         <v>12.0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G156" t="n">
         <v>304.0</v>
@@ -7492,7 +7492,7 @@
         <v>16.0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G157" t="n">
         <v>808.0</v>
@@ -7533,7 +7533,7 @@
         <v>4.0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G158" t="n">
         <v>212.0</v>
@@ -7574,7 +7574,7 @@
         <v>16.0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G159" t="n">
         <v>1888.0</v>
@@ -7615,7 +7615,7 @@
         <v>4.0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G160" t="n">
         <v>156.0</v>
@@ -7656,7 +7656,7 @@
         <v>8.0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G161" t="n">
         <v>328.0</v>
@@ -7697,7 +7697,7 @@
         <v>8.0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G162" t="n">
         <v>260.0</v>
@@ -7738,7 +7738,7 @@
         <v>8.0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G163" t="n">
         <v>128.0</v>
@@ -7779,7 +7779,7 @@
         <v>8.0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G164" t="n">
         <v>244.0</v>
@@ -7820,7 +7820,7 @@
         <v>8.0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G165" t="n">
         <v>444.0</v>
@@ -7861,7 +7861,7 @@
         <v>4.0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G166" t="n">
         <v>128.0</v>
@@ -7902,7 +7902,7 @@
         <v>12.0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G167" t="n">
         <v>1116.0</v>
@@ -7943,7 +7943,7 @@
         <v>16.0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G168" t="n">
         <v>832.0</v>
@@ -7984,7 +7984,7 @@
         <v>8.0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G169" t="n">
         <v>324.0</v>
@@ -8025,7 +8025,7 @@
         <v>4.0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G170" t="n">
         <v>112.0</v>
@@ -8066,7 +8066,7 @@
         <v>8.0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G171" t="n">
         <v>216.0</v>
@@ -8107,7 +8107,7 @@
         <v>12.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G172" t="n">
         <v>2024.0</v>
@@ -8148,7 +8148,7 @@
         <v>8.0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G173" t="n">
         <v>536.0</v>
@@ -8189,7 +8189,7 @@
         <v>4.0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G174" t="n">
         <v>140.0</v>
@@ -8230,7 +8230,7 @@
         <v>8.0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G175" t="n">
         <v>396.0</v>
@@ -8271,7 +8271,7 @@
         <v>12.0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G176" t="n">
         <v>376.0</v>
@@ -8312,7 +8312,7 @@
         <v>12.0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G177" t="n">
         <v>908.0</v>
@@ -8353,7 +8353,7 @@
         <v>8.0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G178" t="n">
         <v>1136.0</v>
@@ -8394,7 +8394,7 @@
         <v>20.0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G179" t="n">
         <v>2136.0</v>
@@ -8476,7 +8476,7 @@
         <v>8.0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G181" t="n">
         <v>1220.0</v>
@@ -8517,7 +8517,7 @@
         <v>80.0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G182" t="n">
         <v>2320.0</v>
@@ -8558,7 +8558,7 @@
         <v>8.0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G183" t="n">
         <v>212.0</v>
@@ -8599,7 +8599,7 @@
         <v>8.0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G184" t="n">
         <v>252.0</v>
@@ -8640,7 +8640,7 @@
         <v>8.0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G185" t="n">
         <v>132.0</v>
@@ -8722,7 +8722,7 @@
         <v>8.0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G187" t="n">
         <v>808.0</v>
@@ -8763,7 +8763,7 @@
         <v>48.0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G188" t="n">
         <v>1500.0</v>
@@ -8804,7 +8804,7 @@
         <v>4.0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G189" t="n">
         <v>160.0</v>
@@ -8845,7 +8845,7 @@
         <v>16.0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G190" t="n">
         <v>520.0</v>
@@ -8886,7 +8886,7 @@
         <v>16.0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G191" t="n">
         <v>1604.0</v>
@@ -8927,7 +8927,7 @@
         <v>28.0</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G192" t="n">
         <v>2180.0</v>
@@ -8968,7 +8968,7 @@
         <v>4.0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G193" t="n">
         <v>128.0</v>
@@ -9009,7 +9009,7 @@
         <v>8.0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G194" t="n">
         <v>296.0</v>
@@ -9050,7 +9050,7 @@
         <v>16.0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G195" t="n">
         <v>844.0</v>
@@ -9091,7 +9091,7 @@
         <v>12.0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G196" t="n">
         <v>2356.0</v>
@@ -9132,7 +9132,7 @@
         <v>12.0</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G197" t="n">
         <v>644.0</v>
@@ -9173,7 +9173,7 @@
         <v>32.0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G198" t="n">
         <v>512.0</v>
@@ -9214,7 +9214,7 @@
         <v>8.0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G199" t="n">
         <v>320.0</v>
@@ -9255,7 +9255,7 @@
         <v>36.0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G200" t="n">
         <v>3616.0</v>
@@ -9296,7 +9296,7 @@
         <v>4.0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G201" t="n">
         <v>240.0</v>
@@ -9337,7 +9337,7 @@
         <v>20.0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G202" t="n">
         <v>296.0</v>
@@ -9378,7 +9378,7 @@
         <v>8.0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G203" t="n">
         <v>472.0</v>
@@ -9419,7 +9419,7 @@
         <v>8.0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G204" t="n">
         <v>220.0</v>
@@ -9460,7 +9460,7 @@
         <v>8.0</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G205" t="n">
         <v>36.0</v>
@@ -9501,7 +9501,7 @@
         <v>4.0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G206" t="n">
         <v>364.0</v>
@@ -9583,7 +9583,7 @@
         <v>4.0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G208" t="n">
         <v>48.0</v>
@@ -9624,7 +9624,7 @@
         <v>4.0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G209" t="n">
         <v>44.0</v>
@@ -9665,7 +9665,7 @@
         <v>20.0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G210" t="n">
         <v>100.0</v>
@@ -9706,7 +9706,7 @@
         <v>32.0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G211" t="n">
         <v>856.0</v>
@@ -9747,7 +9747,7 @@
         <v>24.0</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G212" t="n">
         <v>444.0</v>
@@ -9788,7 +9788,7 @@
         <v>4.0</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G213" t="n">
         <v>36.0</v>
@@ -9829,7 +9829,7 @@
         <v>12.0</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G214" t="n">
         <v>32.0</v>
@@ -9870,7 +9870,7 @@
         <v>4.0</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G215" t="n">
         <v>52.0</v>
@@ -9911,7 +9911,7 @@
         <v>8.0</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G216" t="n">
         <v>104.0</v>
@@ -10034,7 +10034,7 @@
         <v>36.0</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G219" t="n">
         <v>884.0</v>
@@ -10075,7 +10075,7 @@
         <v>20.0</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G220" t="n">
         <v>280.0</v>
@@ -10116,7 +10116,7 @@
         <v>4.0</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G221" t="n">
         <v>20.0</v>
@@ -10157,7 +10157,7 @@
         <v>24.0</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G222" t="n">
         <v>120.0</v>
@@ -10198,7 +10198,7 @@
         <v>4.0</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G223" t="n">
         <v>104.0</v>
@@ -10239,7 +10239,7 @@
         <v>8.0</v>
       </c>
       <c r="F224" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G224" t="n">
         <v>20.0</v>
@@ -10280,7 +10280,7 @@
         <v>12.0</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G225" t="n">
         <v>68.0</v>
@@ -10321,7 +10321,7 @@
         <v>20.0</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G226" t="n">
         <v>236.0</v>
@@ -10362,7 +10362,7 @@
         <v>4.0</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G227" t="n">
         <v>8.0</v>
@@ -10403,7 +10403,7 @@
         <v>4.0</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G228" t="n">
         <v>100.0</v>
@@ -10485,7 +10485,7 @@
         <v>8.0</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G230" t="n">
         <v>40.0</v>
@@ -10526,7 +10526,7 @@
         <v>12.0</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G231" t="n">
         <v>244.0</v>
@@ -10567,7 +10567,7 @@
         <v>24.0</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G232" t="n">
         <v>728.0</v>
@@ -10608,7 +10608,7 @@
         <v>4.0</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G233" t="n">
         <v>108.0</v>
@@ -10649,7 +10649,7 @@
         <v>8.0</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G234" t="n">
         <v>356.0</v>
@@ -10690,7 +10690,7 @@
         <v>16.0</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G235" t="n">
         <v>144.0</v>
@@ -10731,7 +10731,7 @@
         <v>8.0</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G236" t="n">
         <v>48.0</v>
@@ -10772,7 +10772,7 @@
         <v>16.0</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G237" t="n">
         <v>116.0</v>
@@ -10813,7 +10813,7 @@
         <v>4.0</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G238" t="n">
         <v>20.0</v>
@@ -10854,7 +10854,7 @@
         <v>4.0</v>
       </c>
       <c r="F239" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G239" t="n">
         <v>20.0</v>
@@ -10895,7 +10895,7 @@
         <v>4.0</v>
       </c>
       <c r="F240" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G240" t="n">
         <v>4.0</v>
@@ -10936,7 +10936,7 @@
         <v>4.0</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G241" t="n">
         <v>528.0</v>
@@ -10977,7 +10977,7 @@
         <v>4.0</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G242" t="n">
         <v>944.0</v>
@@ -11018,7 +11018,7 @@
         <v>12.0</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G243" t="n">
         <v>196.0</v>
@@ -11059,7 +11059,7 @@
         <v>12.0</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G244" t="n">
         <v>80.0</v>
@@ -11100,7 +11100,7 @@
         <v>36.0</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G245" t="n">
         <v>612.0</v>
@@ -11141,7 +11141,7 @@
         <v>4.0</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G246" t="n">
         <v>360.0</v>
@@ -11182,7 +11182,7 @@
         <v>4.0</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G247" t="n">
         <v>232.0</v>
@@ -11264,7 +11264,7 @@
         <v>16.0</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G249" t="n">
         <v>36.0</v>
@@ -11305,7 +11305,7 @@
         <v>40.0</v>
       </c>
       <c r="F250" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G250" t="n">
         <v>772.0</v>
@@ -11469,7 +11469,7 @@
         <v>4.0</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G254" t="n">
         <v>8.0</v>
@@ -11510,7 +11510,7 @@
         <v>8.0</v>
       </c>
       <c r="F255" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G255" t="n">
         <v>2664.0</v>
@@ -11551,7 +11551,7 @@
         <v>4.0</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G256" t="n">
         <v>220.0</v>
@@ -11592,7 +11592,7 @@
         <v>20.0</v>
       </c>
       <c r="F257" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G257" t="n">
         <v>436.0</v>
@@ -12002,7 +12002,7 @@
         <v>12.0</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G267" t="n">
         <v>344.0</v>
@@ -12043,7 +12043,7 @@
         <v>4.0</v>
       </c>
       <c r="F268" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G268" t="n">
         <v>12.0</v>
@@ -12084,7 +12084,7 @@
         <v>4.0</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G269" t="n">
         <v>16.0</v>
@@ -12125,7 +12125,7 @@
         <v>4.0</v>
       </c>
       <c r="F270" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G270" t="n">
         <v>60.0</v>
@@ -12207,7 +12207,7 @@
         <v>4.0</v>
       </c>
       <c r="F272" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G272" t="n">
         <v>236.0</v>
@@ -12248,7 +12248,7 @@
         <v>4.0</v>
       </c>
       <c r="F273" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G273" t="n">
         <v>52.0</v>
@@ -12330,7 +12330,7 @@
         <v>4.0</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G275" t="n">
         <v>36.0</v>
@@ -12412,7 +12412,7 @@
         <v>4.0</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G277" t="n">
         <v>144.0</v>
@@ -12699,7 +12699,7 @@
         <v>4.0</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G284" t="n">
         <v>56.0</v>
@@ -12740,7 +12740,7 @@
         <v>4.0</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G285" t="n">
         <v>168.0</v>
@@ -12904,7 +12904,7 @@
         <v>4.0</v>
       </c>
       <c r="F289" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G289" t="n">
         <v>28.0</v>
@@ -12945,7 +12945,7 @@
         <v>4.0</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G290" t="n">
         <v>20.0</v>
@@ -12986,7 +12986,7 @@
         <v>4.0</v>
       </c>
       <c r="F291" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G291" t="n">
         <v>48.0</v>
@@ -13027,7 +13027,7 @@
         <v>16.0</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G292" t="n">
         <v>480.0</v>
@@ -13068,7 +13068,7 @@
         <v>4.0</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G293" t="n">
         <v>4.0</v>
@@ -13109,7 +13109,7 @@
         <v>4.0</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G294" t="n">
         <v>20.0</v>
@@ -13232,7 +13232,7 @@
         <v>4.0</v>
       </c>
       <c r="F297" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G297" t="n">
         <v>36.0</v>
@@ -13478,7 +13478,7 @@
         <v>4.0</v>
       </c>
       <c r="F303" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G303" t="n">
         <v>20.0</v>
@@ -13601,7 +13601,7 @@
         <v>4.0</v>
       </c>
       <c r="F306" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G306" t="n">
         <v>12.0</v>
@@ -13683,7 +13683,7 @@
         <v>4.0</v>
       </c>
       <c r="F308" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G308" t="n">
         <v>26016.0</v>
@@ -13765,7 +13765,7 @@
         <v>4.0</v>
       </c>
       <c r="F310" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G310" t="n">
         <v>4.0</v>
@@ -13847,7 +13847,7 @@
         <v>8.0</v>
       </c>
       <c r="F312" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G312" t="n">
         <v>1712.0</v>
@@ -13888,7 +13888,7 @@
         <v>8.0</v>
       </c>
       <c r="F313" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G313" t="n">
         <v>4228.0</v>
@@ -13929,7 +13929,7 @@
         <v>4.0</v>
       </c>
       <c r="F314" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G314" t="n">
         <v>368.0</v>
@@ -13970,7 +13970,7 @@
         <v>8.0</v>
       </c>
       <c r="F315" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G315" t="n">
         <v>1428.0</v>
@@ -14011,7 +14011,7 @@
         <v>12.0</v>
       </c>
       <c r="F316" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G316" t="n">
         <v>1628.0</v>
@@ -14257,7 +14257,7 @@
         <v>8.0</v>
       </c>
       <c r="F322" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G322" t="n">
         <v>48.0</v>
@@ -14298,7 +14298,7 @@
         <v>4.0</v>
       </c>
       <c r="F323" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G323" t="n">
         <v>4.0</v>
@@ -14421,7 +14421,7 @@
         <v>4.0</v>
       </c>
       <c r="F326" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G326" t="n">
         <v>16.0</v>
@@ -14544,7 +14544,7 @@
         <v>8.0</v>
       </c>
       <c r="F329" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G329" t="n">
         <v>28.0</v>
@@ -14585,7 +14585,7 @@
         <v>8.0</v>
       </c>
       <c r="F330" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G330" t="n">
         <v>44.0</v>
@@ -14626,7 +14626,7 @@
         <v>4.0</v>
       </c>
       <c r="F331" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G331" t="n">
         <v>12.0</v>
@@ -14708,7 +14708,7 @@
         <v>4.0</v>
       </c>
       <c r="F333" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G333" t="n">
         <v>32.0</v>
@@ -14790,7 +14790,7 @@
         <v>8.0</v>
       </c>
       <c r="F335" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G335" t="n">
         <v>208.0</v>
@@ -14831,7 +14831,7 @@
         <v>4.0</v>
       </c>
       <c r="F336" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G336" t="n">
         <v>124.0</v>
@@ -14872,7 +14872,7 @@
         <v>4.0</v>
       </c>
       <c r="F337" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G337" t="n">
         <v>36.0</v>
@@ -14913,7 +14913,7 @@
         <v>4.0</v>
       </c>
       <c r="F338" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G338" t="n">
         <v>56.0</v>
@@ -14954,7 +14954,7 @@
         <v>4.0</v>
       </c>
       <c r="F339" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G339" t="n">
         <v>40.0</v>
@@ -14995,7 +14995,7 @@
         <v>4.0</v>
       </c>
       <c r="F340" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G340" t="n">
         <v>148.0</v>
@@ -15036,7 +15036,7 @@
         <v>4.0</v>
       </c>
       <c r="F341" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G341" t="n">
         <v>108.0</v>
@@ -15077,7 +15077,7 @@
         <v>4.0</v>
       </c>
       <c r="F342" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G342" t="n">
         <v>192.0</v>
@@ -15118,7 +15118,7 @@
         <v>12.0</v>
       </c>
       <c r="F343" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G343" t="n">
         <v>316.0</v>
@@ -15159,7 +15159,7 @@
         <v>4.0</v>
       </c>
       <c r="F344" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G344" t="n">
         <v>308.0</v>
@@ -15200,7 +15200,7 @@
         <v>4.0</v>
       </c>
       <c r="F345" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G345" t="n">
         <v>252.0</v>
@@ -15282,7 +15282,7 @@
         <v>8.0</v>
       </c>
       <c r="F347" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G347" t="n">
         <v>772.0</v>
@@ -15323,7 +15323,7 @@
         <v>4.0</v>
       </c>
       <c r="F348" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G348" t="n">
         <v>4.0</v>
@@ -15364,7 +15364,7 @@
         <v>12.0</v>
       </c>
       <c r="F349" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G349" t="n">
         <v>828.0</v>
@@ -15528,7 +15528,7 @@
         <v>8.0</v>
       </c>
       <c r="F353" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G353" t="n">
         <v>248.0</v>
@@ -15610,7 +15610,7 @@
         <v>4.0</v>
       </c>
       <c r="F355" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G355" t="n">
         <v>12.0</v>
@@ -15774,7 +15774,7 @@
         <v>12.0</v>
       </c>
       <c r="F359" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G359" t="n">
         <v>172.0</v>
@@ -15815,7 +15815,7 @@
         <v>4.0</v>
       </c>
       <c r="F360" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G360" t="n">
         <v>256.0</v>
@@ -15856,7 +15856,7 @@
         <v>4.0</v>
       </c>
       <c r="F361" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G361" t="n">
         <v>180.0</v>
@@ -16061,7 +16061,7 @@
         <v>8.0</v>
       </c>
       <c r="F366" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G366" t="n">
         <v>84.0</v>
@@ -16102,7 +16102,7 @@
         <v>4.0</v>
       </c>
       <c r="F367" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G367" t="n">
         <v>8.0</v>
@@ -16225,7 +16225,7 @@
         <v>4.0</v>
       </c>
       <c r="F370" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G370" t="n">
         <v>16.0</v>
@@ -16266,7 +16266,7 @@
         <v>4.0</v>
       </c>
       <c r="F371" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G371" t="n">
         <v>4.0</v>
@@ -16471,7 +16471,7 @@
         <v>4.0</v>
       </c>
       <c r="F376" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G376" t="n">
         <v>72.0</v>
@@ -16512,7 +16512,7 @@
         <v>12.0</v>
       </c>
       <c r="F377" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G377" t="n">
         <v>1012.0</v>
@@ -16594,7 +16594,7 @@
         <v>16.0</v>
       </c>
       <c r="F379" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G379" t="n">
         <v>740.0</v>
@@ -16717,7 +16717,7 @@
         <v>4.0</v>
       </c>
       <c r="F382" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G382" t="n">
         <v>96.0</v>
@@ -16840,7 +16840,7 @@
         <v>4.0</v>
       </c>
       <c r="F385" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G385" t="n">
         <v>16.0</v>
@@ -16881,7 +16881,7 @@
         <v>4.0</v>
       </c>
       <c r="F386" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G386" t="n">
         <v>4.0</v>
@@ -16963,7 +16963,7 @@
         <v>4.0</v>
       </c>
       <c r="F388" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G388" t="n">
         <v>16.0</v>
@@ -17004,7 +17004,7 @@
         <v>4.0</v>
       </c>
       <c r="F389" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G389" t="n">
         <v>20.0</v>
@@ -17086,7 +17086,7 @@
         <v>4.0</v>
       </c>
       <c r="F391" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G391" t="n">
         <v>20.0</v>
@@ -17127,7 +17127,7 @@
         <v>8.0</v>
       </c>
       <c r="F392" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G392" t="n">
         <v>72.0</v>
@@ -17209,7 +17209,7 @@
         <v>4.0</v>
       </c>
       <c r="F394" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G394" t="n">
         <v>4.0</v>
@@ -17414,7 +17414,7 @@
         <v>8.0</v>
       </c>
       <c r="F399" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G399" t="n">
         <v>80.0</v>
@@ -17496,7 +17496,7 @@
         <v>8.0</v>
       </c>
       <c r="F401" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G401" t="n">
         <v>120.0</v>
@@ -17537,7 +17537,7 @@
         <v>76.0</v>
       </c>
       <c r="F402" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G402" t="n">
         <v>2784.0</v>
@@ -17619,7 +17619,7 @@
         <v>4.0</v>
       </c>
       <c r="F404" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G404" t="n">
         <v>20.0</v>
@@ -17701,7 +17701,7 @@
         <v>20.0</v>
       </c>
       <c r="F406" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G406" t="n">
         <v>3780.0</v>
@@ -17783,7 +17783,7 @@
         <v>12.0</v>
       </c>
       <c r="F408" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G408" t="n">
         <v>404.0</v>
@@ -17824,7 +17824,7 @@
         <v>24.0</v>
       </c>
       <c r="F409" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G409" t="n">
         <v>492.0</v>
@@ -17906,7 +17906,7 @@
         <v>12.0</v>
       </c>
       <c r="F411" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G411" t="n">
         <v>436.0</v>
@@ -17947,7 +17947,7 @@
         <v>12.0</v>
       </c>
       <c r="F412" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G412" t="n">
         <v>100.0</v>
@@ -17988,7 +17988,7 @@
         <v>4.0</v>
       </c>
       <c r="F413" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G413" t="n">
         <v>204.0</v>
@@ -18029,7 +18029,7 @@
         <v>36.0</v>
       </c>
       <c r="F414" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G414" t="n">
         <v>536.0</v>
@@ -18152,7 +18152,7 @@
         <v>32.0</v>
       </c>
       <c r="F417" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G417" t="n">
         <v>164.0</v>
@@ -18193,7 +18193,7 @@
         <v>28.0</v>
       </c>
       <c r="F418" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G418" t="n">
         <v>132.0</v>
@@ -18234,7 +18234,7 @@
         <v>4.0</v>
       </c>
       <c r="F419" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G419" t="n">
         <v>8.0</v>
@@ -18275,7 +18275,7 @@
         <v>4.0</v>
       </c>
       <c r="F420" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G420" t="n">
         <v>16.0</v>
@@ -18357,7 +18357,7 @@
         <v>36.0</v>
       </c>
       <c r="F422" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G422" t="n">
         <v>828.0</v>
@@ -18439,7 +18439,7 @@
         <v>4.0</v>
       </c>
       <c r="F424" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G424" t="n">
         <v>8.0</v>
@@ -18480,7 +18480,7 @@
         <v>4.0</v>
       </c>
       <c r="F425" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G425" t="n">
         <v>16.0</v>
@@ -18521,7 +18521,7 @@
         <v>4.0</v>
       </c>
       <c r="F426" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G426" t="n">
         <v>4.0</v>
@@ -18562,7 +18562,7 @@
         <v>12.0</v>
       </c>
       <c r="F427" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G427" t="n">
         <v>1080.0</v>
@@ -18644,7 +18644,7 @@
         <v>4.0</v>
       </c>
       <c r="F429" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G429" t="n">
         <v>76.0</v>
@@ -18726,7 +18726,7 @@
         <v>8.0</v>
       </c>
       <c r="F431" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G431" t="n">
         <v>236.0</v>
@@ -18767,7 +18767,7 @@
         <v>4.0</v>
       </c>
       <c r="F432" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G432" t="n">
         <v>176.0</v>
@@ -18808,7 +18808,7 @@
         <v>4.0</v>
       </c>
       <c r="F433" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G433" t="n">
         <v>432.0</v>
@@ -18890,7 +18890,7 @@
         <v>16.0</v>
       </c>
       <c r="F435" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G435" t="n">
         <v>176.0</v>
@@ -18931,7 +18931,7 @@
         <v>12.0</v>
       </c>
       <c r="F436" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G436" t="n">
         <v>488.0</v>
@@ -18972,7 +18972,7 @@
         <v>44.0</v>
       </c>
       <c r="F437" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G437" t="n">
         <v>516.0</v>
@@ -19013,7 +19013,7 @@
         <v>52.0</v>
       </c>
       <c r="F438" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G438" t="n">
         <v>1276.0</v>
@@ -19095,7 +19095,7 @@
         <v>4.0</v>
       </c>
       <c r="F440" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G440" t="n">
         <v>28.0</v>
@@ -19136,7 +19136,7 @@
         <v>8.0</v>
       </c>
       <c r="F441" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G441" t="n">
         <v>152.0</v>
@@ -19177,7 +19177,7 @@
         <v>16.0</v>
       </c>
       <c r="F442" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G442" t="n">
         <v>1140.0</v>
@@ -19218,7 +19218,7 @@
         <v>16.0</v>
       </c>
       <c r="F443" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G443" t="n">
         <v>64.0</v>
@@ -19259,7 +19259,7 @@
         <v>12.0</v>
       </c>
       <c r="F444" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G444" t="n">
         <v>52.0</v>
@@ -19300,7 +19300,7 @@
         <v>4.0</v>
       </c>
       <c r="F445" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G445" t="n">
         <v>0.0</v>
@@ -19341,7 +19341,7 @@
         <v>20.0</v>
       </c>
       <c r="F446" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G446" t="n">
         <v>672.0</v>
@@ -19382,7 +19382,7 @@
         <v>16.0</v>
       </c>
       <c r="F447" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G447" t="n">
         <v>2068.0</v>
@@ -19423,7 +19423,7 @@
         <v>48.0</v>
       </c>
       <c r="F448" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G448" t="n">
         <v>1352.0</v>
@@ -19464,7 +19464,7 @@
         <v>36.0</v>
       </c>
       <c r="F449" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G449" t="n">
         <v>1092.0</v>
@@ -19505,7 +19505,7 @@
         <v>12.0</v>
       </c>
       <c r="F450" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G450" t="n">
         <v>224.0</v>
@@ -19546,7 +19546,7 @@
         <v>8.0</v>
       </c>
       <c r="F451" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G451" t="n">
         <v>8.0</v>
@@ -19628,7 +19628,7 @@
         <v>20.0</v>
       </c>
       <c r="F453" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G453" t="n">
         <v>240.0</v>
@@ -19669,7 +19669,7 @@
         <v>48.0</v>
       </c>
       <c r="F454" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G454" t="n">
         <v>1752.0</v>
@@ -19710,7 +19710,7 @@
         <v>16.0</v>
       </c>
       <c r="F455" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G455" t="n">
         <v>52.0</v>
@@ -19751,7 +19751,7 @@
         <v>8.0</v>
       </c>
       <c r="F456" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G456" t="n">
         <v>124.0</v>
@@ -19792,7 +19792,7 @@
         <v>8.0</v>
       </c>
       <c r="F457" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G457" t="n">
         <v>144.0</v>
@@ -19874,7 +19874,7 @@
         <v>20.0</v>
       </c>
       <c r="F459" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G459" t="n">
         <v>508.0</v>
@@ -19915,7 +19915,7 @@
         <v>16.0</v>
       </c>
       <c r="F460" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G460" t="n">
         <v>296.0</v>
@@ -19956,7 +19956,7 @@
         <v>28.0</v>
       </c>
       <c r="F461" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G461" t="n">
         <v>712.0</v>
@@ -20038,7 +20038,7 @@
         <v>4.0</v>
       </c>
       <c r="F463" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G463" t="n">
         <v>12.0</v>
@@ -20079,7 +20079,7 @@
         <v>28.0</v>
       </c>
       <c r="F464" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G464" t="n">
         <v>812.0</v>
@@ -20120,7 +20120,7 @@
         <v>20.0</v>
       </c>
       <c r="F465" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G465" t="n">
         <v>196.0</v>
@@ -20161,7 +20161,7 @@
         <v>16.0</v>
       </c>
       <c r="F466" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G466" t="n">
         <v>388.0</v>
@@ -20202,7 +20202,7 @@
         <v>20.0</v>
       </c>
       <c r="F467" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G467" t="n">
         <v>512.0</v>
@@ -20243,7 +20243,7 @@
         <v>16.0</v>
       </c>
       <c r="F468" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G468" t="n">
         <v>392.0</v>
@@ -20284,7 +20284,7 @@
         <v>20.0</v>
       </c>
       <c r="F469" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G469" t="n">
         <v>312.0</v>
@@ -20325,7 +20325,7 @@
         <v>8.0</v>
       </c>
       <c r="F470" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G470" t="n">
         <v>540.0</v>
@@ -20366,7 +20366,7 @@
         <v>16.0</v>
       </c>
       <c r="F471" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G471" t="n">
         <v>944.0</v>
@@ -20407,7 +20407,7 @@
         <v>12.0</v>
       </c>
       <c r="F472" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G472" t="n">
         <v>436.0</v>
@@ -20448,7 +20448,7 @@
         <v>8.0</v>
       </c>
       <c r="F473" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G473" t="n">
         <v>3008.0</v>
@@ -20489,7 +20489,7 @@
         <v>52.0</v>
       </c>
       <c r="F474" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G474" t="n">
         <v>2508.0</v>
@@ -20530,7 +20530,7 @@
         <v>8.0</v>
       </c>
       <c r="F475" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G475" t="n">
         <v>288.0</v>
@@ -20571,7 +20571,7 @@
         <v>4.0</v>
       </c>
       <c r="F476" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G476" t="n">
         <v>36.0</v>
@@ -20612,7 +20612,7 @@
         <v>4.0</v>
       </c>
       <c r="F477" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G477" t="n">
         <v>16.0</v>
@@ -20653,7 +20653,7 @@
         <v>4.0</v>
       </c>
       <c r="F478" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G478" t="n">
         <v>104.0</v>
@@ -20694,7 +20694,7 @@
         <v>4.0</v>
       </c>
       <c r="F479" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G479" t="n">
         <v>316.0</v>
@@ -20735,7 +20735,7 @@
         <v>4.0</v>
       </c>
       <c r="F480" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G480" t="n">
         <v>100.0</v>
@@ -20776,7 +20776,7 @@
         <v>4.0</v>
       </c>
       <c r="F481" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G481" t="n">
         <v>336.0</v>
@@ -20817,7 +20817,7 @@
         <v>4.0</v>
       </c>
       <c r="F482" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G482" t="n">
         <v>136.0</v>
@@ -20858,7 +20858,7 @@
         <v>4.0</v>
       </c>
       <c r="F483" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G483" t="n">
         <v>132.0</v>
@@ -20899,7 +20899,7 @@
         <v>4.0</v>
       </c>
       <c r="F484" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G484" t="n">
         <v>416.0</v>
@@ -20940,7 +20940,7 @@
         <v>4.0</v>
       </c>
       <c r="F485" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G485" t="n">
         <v>688.0</v>
@@ -20981,7 +20981,7 @@
         <v>4.0</v>
       </c>
       <c r="F486" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G486" t="n">
         <v>280.0</v>
@@ -21022,7 +21022,7 @@
         <v>4.0</v>
       </c>
       <c r="F487" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G487" t="n">
         <v>560.0</v>
@@ -21063,7 +21063,7 @@
         <v>4.0</v>
       </c>
       <c r="F488" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G488" t="n">
         <v>856.0</v>
@@ -21104,7 +21104,7 @@
         <v>4.0</v>
       </c>
       <c r="F489" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G489" t="n">
         <v>616.0</v>
@@ -21145,7 +21145,7 @@
         <v>8.0</v>
       </c>
       <c r="F490" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G490" t="n">
         <v>104.0</v>
@@ -21186,7 +21186,7 @@
         <v>8.0</v>
       </c>
       <c r="F491" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G491" t="n">
         <v>248.0</v>
@@ -21227,7 +21227,7 @@
         <v>4.0</v>
       </c>
       <c r="F492" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G492" t="n">
         <v>16.0</v>
@@ -21268,7 +21268,7 @@
         <v>52.0</v>
       </c>
       <c r="F493" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G493" t="n">
         <v>752.0</v>
@@ -21309,7 +21309,7 @@
         <v>4.0</v>
       </c>
       <c r="F494" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G494" t="n">
         <v>12.0</v>
@@ -21391,7 +21391,7 @@
         <v>4.0</v>
       </c>
       <c r="F496" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G496" t="n">
         <v>4.0</v>
@@ -21432,7 +21432,7 @@
         <v>28.0</v>
       </c>
       <c r="F497" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G497" t="n">
         <v>16456.0</v>
@@ -21473,7 +21473,7 @@
         <v>8.0</v>
       </c>
       <c r="F498" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G498" t="n">
         <v>132.0</v>
@@ -21514,7 +21514,7 @@
         <v>36.0</v>
       </c>
       <c r="F499" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G499" t="n">
         <v>480.0</v>
@@ -21555,7 +21555,7 @@
         <v>8.0</v>
       </c>
       <c r="F500" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G500" t="n">
         <v>32.0</v>
@@ -21596,7 +21596,7 @@
         <v>16.0</v>
       </c>
       <c r="F501" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G501" t="n">
         <v>2308.0</v>
@@ -21637,7 +21637,7 @@
         <v>24.0</v>
       </c>
       <c r="F502" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G502" t="n">
         <v>1660.0</v>
@@ -21678,7 +21678,7 @@
         <v>28.0</v>
       </c>
       <c r="F503" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G503" t="n">
         <v>1204.0</v>
@@ -21719,7 +21719,7 @@
         <v>12.0</v>
       </c>
       <c r="F504" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G504" t="n">
         <v>568.0</v>
@@ -21760,7 +21760,7 @@
         <v>4.0</v>
       </c>
       <c r="F505" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G505" t="n">
         <v>224.0</v>
@@ -21801,7 +21801,7 @@
         <v>12.0</v>
       </c>
       <c r="F506" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G506" t="n">
         <v>324.0</v>
@@ -21842,7 +21842,7 @@
         <v>32.0</v>
       </c>
       <c r="F507" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G507" t="n">
         <v>1864.0</v>
@@ -22006,7 +22006,7 @@
         <v>8.0</v>
       </c>
       <c r="F511" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G511" t="n">
         <v>184.0</v>
@@ -22047,7 +22047,7 @@
         <v>8.0</v>
       </c>
       <c r="F512" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G512" t="n">
         <v>684.0</v>
@@ -22088,7 +22088,7 @@
         <v>4.0</v>
       </c>
       <c r="F513" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G513" t="n">
         <v>308.0</v>
@@ -22170,7 +22170,7 @@
         <v>4.0</v>
       </c>
       <c r="F515" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G515" t="n">
         <v>132.0</v>
@@ -22211,7 +22211,7 @@
         <v>20.0</v>
       </c>
       <c r="F516" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G516" t="n">
         <v>100.0</v>
@@ -22293,7 +22293,7 @@
         <v>8.0</v>
       </c>
       <c r="F518" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G518" t="n">
         <v>120.0</v>
@@ -22334,7 +22334,7 @@
         <v>8.0</v>
       </c>
       <c r="F519" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G519" t="n">
         <v>168.0</v>
@@ -22375,7 +22375,7 @@
         <v>8.0</v>
       </c>
       <c r="F520" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G520" t="n">
         <v>608.0</v>
@@ -22457,7 +22457,7 @@
         <v>4.0</v>
       </c>
       <c r="F522" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G522" t="n">
         <v>8.0</v>
@@ -22498,7 +22498,7 @@
         <v>4.0</v>
       </c>
       <c r="F523" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G523" t="n">
         <v>188.0</v>
@@ -22539,7 +22539,7 @@
         <v>8.0</v>
       </c>
       <c r="F524" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G524" t="n">
         <v>256.0</v>
@@ -22580,7 +22580,7 @@
         <v>4.0</v>
       </c>
       <c r="F525" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G525" t="n">
         <v>172.0</v>
@@ -22621,7 +22621,7 @@
         <v>16.0</v>
       </c>
       <c r="F526" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G526" t="n">
         <v>728.0</v>
@@ -22662,7 +22662,7 @@
         <v>8.0</v>
       </c>
       <c r="F527" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G527" t="n">
         <v>252.0</v>
@@ -22703,7 +22703,7 @@
         <v>4.0</v>
       </c>
       <c r="F528" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G528" t="n">
         <v>180.0</v>
@@ -22744,7 +22744,7 @@
         <v>4.0</v>
       </c>
       <c r="F529" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G529" t="n">
         <v>376.0</v>
@@ -22867,7 +22867,7 @@
         <v>8.0</v>
       </c>
       <c r="F532" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G532" t="n">
         <v>112.0</v>
@@ -22908,7 +22908,7 @@
         <v>12.0</v>
       </c>
       <c r="F533" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G533" t="n">
         <v>252.0</v>
@@ -22949,7 +22949,7 @@
         <v>8.0</v>
       </c>
       <c r="F534" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G534" t="n">
         <v>32.0</v>
@@ -22990,7 +22990,7 @@
         <v>12.0</v>
       </c>
       <c r="F535" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G535" t="n">
         <v>32.0</v>
@@ -23031,7 +23031,7 @@
         <v>8.0</v>
       </c>
       <c r="F536" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G536" t="n">
         <v>40.0</v>
@@ -23154,7 +23154,7 @@
         <v>8.0</v>
       </c>
       <c r="F539" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G539" t="n">
         <v>48.0</v>
@@ -23195,7 +23195,7 @@
         <v>4.0</v>
       </c>
       <c r="F540" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G540" t="n">
         <v>40.0</v>
@@ -23236,7 +23236,7 @@
         <v>12.0</v>
       </c>
       <c r="F541" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G541" t="n">
         <v>140.0</v>
@@ -23400,7 +23400,7 @@
         <v>4.0</v>
       </c>
       <c r="F545" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G545" t="n">
         <v>136.0</v>
@@ -23441,7 +23441,7 @@
         <v>4.0</v>
       </c>
       <c r="F546" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G546" t="n">
         <v>136.0</v>
@@ -23564,7 +23564,7 @@
         <v>4.0</v>
       </c>
       <c r="F549" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G549" t="n">
         <v>624.0</v>
@@ -23605,7 +23605,7 @@
         <v>4.0</v>
       </c>
       <c r="F550" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G550" t="n">
         <v>336.0</v>
@@ -23646,7 +23646,7 @@
         <v>12.0</v>
       </c>
       <c r="F551" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G551" t="n">
         <v>300.0</v>
@@ -23687,7 +23687,7 @@
         <v>8.0</v>
       </c>
       <c r="F552" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G552" t="n">
         <v>72.0</v>
@@ -23728,7 +23728,7 @@
         <v>8.0</v>
       </c>
       <c r="F553" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G553" t="n">
         <v>52.0</v>
@@ -23769,7 +23769,7 @@
         <v>28.0</v>
       </c>
       <c r="F554" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G554" t="n">
         <v>652.0</v>
@@ -23810,7 +23810,7 @@
         <v>8.0</v>
       </c>
       <c r="F555" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G555" t="n">
         <v>104.0</v>
@@ -23892,7 +23892,7 @@
         <v>8.0</v>
       </c>
       <c r="F557" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G557" t="n">
         <v>732.0</v>
@@ -23933,7 +23933,7 @@
         <v>8.0</v>
       </c>
       <c r="F558" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G558" t="n">
         <v>284.0</v>
@@ -23974,7 +23974,7 @@
         <v>4.0</v>
       </c>
       <c r="F559" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G559" t="n">
         <v>216.0</v>
@@ -24015,7 +24015,7 @@
         <v>4.0</v>
       </c>
       <c r="F560" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G560" t="n">
         <v>640.0</v>
@@ -24056,7 +24056,7 @@
         <v>40.0</v>
       </c>
       <c r="F561" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G561" t="n">
         <v>432.0</v>
@@ -24097,7 +24097,7 @@
         <v>28.0</v>
       </c>
       <c r="F562" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G562" t="n">
         <v>488.0</v>
@@ -24138,7 +24138,7 @@
         <v>40.0</v>
       </c>
       <c r="F563" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G563" t="n">
         <v>1104.0</v>
@@ -24179,7 +24179,7 @@
         <v>8.0</v>
       </c>
       <c r="F564" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G564" t="n">
         <v>2496.0</v>
@@ -24220,7 +24220,7 @@
         <v>12.0</v>
       </c>
       <c r="F565" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G565" t="n">
         <v>1608.0</v>
@@ -24261,7 +24261,7 @@
         <v>8.0</v>
       </c>
       <c r="F566" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G566" t="n">
         <v>1536.0</v>
@@ -24302,7 +24302,7 @@
         <v>4.0</v>
       </c>
       <c r="F567" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G567" t="n">
         <v>96.0</v>
@@ -24343,7 +24343,7 @@
         <v>4.0</v>
       </c>
       <c r="F568" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G568" t="n">
         <v>368.0</v>
@@ -24384,7 +24384,7 @@
         <v>8.0</v>
       </c>
       <c r="F569" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G569" t="n">
         <v>1136.0</v>
@@ -24425,7 +24425,7 @@
         <v>4.0</v>
       </c>
       <c r="F570" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G570" t="n">
         <v>1484.0</v>
@@ -24466,7 +24466,7 @@
         <v>12.0</v>
       </c>
       <c r="F571" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G571" t="n">
         <v>1276.0</v>
@@ -24507,7 +24507,7 @@
         <v>12.0</v>
       </c>
       <c r="F572" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G572" t="n">
         <v>2612.0</v>
@@ -24548,7 +24548,7 @@
         <v>4.0</v>
       </c>
       <c r="F573" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G573" t="n">
         <v>196.0</v>
@@ -24589,7 +24589,7 @@
         <v>4.0</v>
       </c>
       <c r="F574" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G574" t="n">
         <v>188.0</v>
@@ -24630,7 +24630,7 @@
         <v>8.0</v>
       </c>
       <c r="F575" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G575" t="n">
         <v>52.0</v>
@@ -24671,7 +24671,7 @@
         <v>16.0</v>
       </c>
       <c r="F576" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G576" t="n">
         <v>1456.0</v>
@@ -24712,7 +24712,7 @@
         <v>20.0</v>
       </c>
       <c r="F577" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G577" t="n">
         <v>3096.0</v>
@@ -24753,7 +24753,7 @@
         <v>8.0</v>
       </c>
       <c r="F578" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G578" t="n">
         <v>196.0</v>
@@ -24794,7 +24794,7 @@
         <v>4.0</v>
       </c>
       <c r="F579" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G579" t="n">
         <v>68.0</v>
@@ -24835,7 +24835,7 @@
         <v>16.0</v>
       </c>
       <c r="F580" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G580" t="n">
         <v>888.0</v>
@@ -24876,7 +24876,7 @@
         <v>4.0</v>
       </c>
       <c r="F581" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G581" t="n">
         <v>356.0</v>
@@ -24917,7 +24917,7 @@
         <v>4.0</v>
       </c>
       <c r="F582" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G582" t="n">
         <v>200.0</v>
@@ -24958,7 +24958,7 @@
         <v>8.0</v>
       </c>
       <c r="F583" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G583" t="n">
         <v>168.0</v>
@@ -25122,7 +25122,7 @@
         <v>4.0</v>
       </c>
       <c r="F587" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G587" t="n">
         <v>96.0</v>
@@ -25163,7 +25163,7 @@
         <v>4.0</v>
       </c>
       <c r="F588" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G588" t="n">
         <v>12.0</v>
@@ -25204,7 +25204,7 @@
         <v>8.0</v>
       </c>
       <c r="F589" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G589" t="n">
         <v>324.0</v>
@@ -25245,7 +25245,7 @@
         <v>4.0</v>
       </c>
       <c r="F590" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G590" t="n">
         <v>188.0</v>
@@ -25655,7 +25655,7 @@
         <v>4.0</v>
       </c>
       <c r="F600" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G600" t="n">
         <v>176.0</v>
@@ -25696,7 +25696,7 @@
         <v>4.0</v>
       </c>
       <c r="F601" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G601" t="n">
         <v>104.0</v>
@@ -25737,7 +25737,7 @@
         <v>24.0</v>
       </c>
       <c r="F602" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G602" t="n">
         <v>420.0</v>
@@ -25778,7 +25778,7 @@
         <v>56.0</v>
       </c>
       <c r="F603" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G603" t="n">
         <v>50532.0</v>
@@ -25819,7 +25819,7 @@
         <v>4.0</v>
       </c>
       <c r="F604" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G604" t="n">
         <v>296.0</v>
@@ -25901,7 +25901,7 @@
         <v>12.0</v>
       </c>
       <c r="F606" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G606" t="n">
         <v>104.0</v>
@@ -25942,7 +25942,7 @@
         <v>4.0</v>
       </c>
       <c r="F607" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G607" t="n">
         <v>236.0</v>
@@ -25983,7 +25983,7 @@
         <v>4.0</v>
       </c>
       <c r="F608" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G608" t="n">
         <v>48.0</v>
@@ -26024,7 +26024,7 @@
         <v>32.0</v>
       </c>
       <c r="F609" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G609" t="n">
         <v>616.0</v>
@@ -26065,7 +26065,7 @@
         <v>4.0</v>
       </c>
       <c r="F610" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G610" t="n">
         <v>44.0</v>
@@ -26106,7 +26106,7 @@
         <v>8.0</v>
       </c>
       <c r="F611" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G611" t="n">
         <v>92.0</v>
@@ -26147,7 +26147,7 @@
         <v>24.0</v>
       </c>
       <c r="F612" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G612" t="n">
         <v>1328.0</v>
@@ -26188,7 +26188,7 @@
         <v>4.0</v>
       </c>
       <c r="F613" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G613" t="n">
         <v>492.0</v>
@@ -26229,7 +26229,7 @@
         <v>8.0</v>
       </c>
       <c r="F614" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G614" t="n">
         <v>32.0</v>
@@ -26270,7 +26270,7 @@
         <v>8.0</v>
       </c>
       <c r="F615" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G615" t="n">
         <v>16.0</v>
@@ -26311,7 +26311,7 @@
         <v>8.0</v>
       </c>
       <c r="F616" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G616" t="n">
         <v>16.0</v>
@@ -26393,7 +26393,7 @@
         <v>4.0</v>
       </c>
       <c r="F618" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G618" t="n">
         <v>8.0</v>
@@ -26434,7 +26434,7 @@
         <v>48.0</v>
       </c>
       <c r="F619" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G619" t="n">
         <v>1264.0</v>
@@ -26598,7 +26598,7 @@
         <v>4.0</v>
       </c>
       <c r="F623" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G623" t="n">
         <v>20.0</v>
@@ -26721,7 +26721,7 @@
         <v>20.0</v>
       </c>
       <c r="F626" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G626" t="n">
         <v>256.0</v>
@@ -26762,7 +26762,7 @@
         <v>60.0</v>
       </c>
       <c r="F627" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G627" t="n">
         <v>1920.0</v>
@@ -26885,7 +26885,7 @@
         <v>4.0</v>
       </c>
       <c r="F630" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G630" t="n">
         <v>420.0</v>
@@ -27008,7 +27008,7 @@
         <v>4.0</v>
       </c>
       <c r="F633" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G633" t="n">
         <v>20.0</v>
@@ -27090,7 +27090,7 @@
         <v>12.0</v>
       </c>
       <c r="F635" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G635" t="n">
         <v>84.0</v>
@@ -27131,7 +27131,7 @@
         <v>36.0</v>
       </c>
       <c r="F636" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G636" t="n">
         <v>776.0</v>
@@ -27172,7 +27172,7 @@
         <v>12.0</v>
       </c>
       <c r="F637" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G637" t="n">
         <v>932.0</v>
@@ -27213,7 +27213,7 @@
         <v>12.0</v>
       </c>
       <c r="F638" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G638" t="n">
         <v>148.0</v>
@@ -27377,7 +27377,7 @@
         <v>8.0</v>
       </c>
       <c r="F642" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G642" t="n">
         <v>664.0</v>
@@ -27418,7 +27418,7 @@
         <v>16.0</v>
       </c>
       <c r="F643" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G643" t="n">
         <v>964.0</v>
@@ -27459,7 +27459,7 @@
         <v>4.0</v>
       </c>
       <c r="F644" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G644" t="n">
         <v>3464.0</v>
@@ -27500,7 +27500,7 @@
         <v>12.0</v>
       </c>
       <c r="F645" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G645" t="n">
         <v>760.0</v>
@@ -27541,7 +27541,7 @@
         <v>8.0</v>
       </c>
       <c r="F646" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G646" t="n">
         <v>416.0</v>
@@ -27582,7 +27582,7 @@
         <v>8.0</v>
       </c>
       <c r="F647" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G647" t="n">
         <v>400.0</v>
@@ -27623,7 +27623,7 @@
         <v>28.0</v>
       </c>
       <c r="F648" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G648" t="n">
         <v>3572.0</v>
@@ -27664,7 +27664,7 @@
         <v>36.0</v>
       </c>
       <c r="F649" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G649" t="n">
         <v>508.0</v>
@@ -27705,7 +27705,7 @@
         <v>4.0</v>
       </c>
       <c r="F650" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G650" t="n">
         <v>28.0</v>
@@ -27828,7 +27828,7 @@
         <v>8.0</v>
       </c>
       <c r="F653" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G653" t="n">
         <v>88.0</v>
@@ -27869,7 +27869,7 @@
         <v>8.0</v>
       </c>
       <c r="F654" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G654" t="n">
         <v>40.0</v>
@@ -27910,7 +27910,7 @@
         <v>44.0</v>
       </c>
       <c r="F655" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G655" t="n">
         <v>2780.0</v>
@@ -27992,7 +27992,7 @@
         <v>8.0</v>
       </c>
       <c r="F657" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G657" t="n">
         <v>76.0</v>
@@ -28033,7 +28033,7 @@
         <v>4.0</v>
       </c>
       <c r="F658" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G658" t="n">
         <v>108.0</v>
@@ -28115,7 +28115,7 @@
         <v>12.0</v>
       </c>
       <c r="F660" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G660" t="n">
         <v>44.0</v>
@@ -28197,7 +28197,7 @@
         <v>4.0</v>
       </c>
       <c r="F662" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G662" t="n">
         <v>20.0</v>
@@ -28279,7 +28279,7 @@
         <v>4.0</v>
       </c>
       <c r="F664" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G664" t="n">
         <v>16.0</v>
@@ -28361,7 +28361,7 @@
         <v>32.0</v>
       </c>
       <c r="F666" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G666" t="n">
         <v>1204.0</v>
@@ -28402,7 +28402,7 @@
         <v>8.0</v>
       </c>
       <c r="F667" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G667" t="n">
         <v>8.0</v>
@@ -28525,7 +28525,7 @@
         <v>4.0</v>
       </c>
       <c r="F670" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G670" t="n">
         <v>68.0</v>
@@ -28607,7 +28607,7 @@
         <v>4.0</v>
       </c>
       <c r="F672" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G672" t="n">
         <v>36.0</v>
@@ -28648,7 +28648,7 @@
         <v>8.0</v>
       </c>
       <c r="F673" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G673" t="n">
         <v>28.0</v>
@@ -28689,7 +28689,7 @@
         <v>4.0</v>
       </c>
       <c r="F674" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G674" t="n">
         <v>280.0</v>
@@ -29058,7 +29058,7 @@
         <v>4.0</v>
       </c>
       <c r="F683" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G683" t="n">
         <v>80.0</v>
@@ -29140,7 +29140,7 @@
         <v>8.0</v>
       </c>
       <c r="F685" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G685" t="n">
         <v>88.0</v>
@@ -29222,7 +29222,7 @@
         <v>40.0</v>
       </c>
       <c r="F687" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G687" t="n">
         <v>1252.0</v>
@@ -29263,7 +29263,7 @@
         <v>8.0</v>
       </c>
       <c r="F688" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G688" t="n">
         <v>176.0</v>
@@ -29304,7 +29304,7 @@
         <v>20.0</v>
       </c>
       <c r="F689" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G689" t="n">
         <v>256.0</v>
@@ -29345,7 +29345,7 @@
         <v>24.0</v>
       </c>
       <c r="F690" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G690" t="n">
         <v>516.0</v>
@@ -29386,7 +29386,7 @@
         <v>16.0</v>
       </c>
       <c r="F691" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G691" t="n">
         <v>644.0</v>
@@ -29468,7 +29468,7 @@
         <v>8.0</v>
       </c>
       <c r="F693" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G693" t="n">
         <v>72.0</v>
@@ -29509,7 +29509,7 @@
         <v>4.0</v>
       </c>
       <c r="F694" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G694" t="n">
         <v>16.0</v>
@@ -29550,7 +29550,7 @@
         <v>4.0</v>
       </c>
       <c r="F695" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G695" t="n">
         <v>648.0</v>
@@ -29591,7 +29591,7 @@
         <v>8.0</v>
       </c>
       <c r="F696" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G696" t="n">
         <v>524.0</v>
@@ -29632,7 +29632,7 @@
         <v>4.0</v>
       </c>
       <c r="F697" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G697" t="n">
         <v>432.0</v>
@@ -29673,7 +29673,7 @@
         <v>8.0</v>
       </c>
       <c r="F698" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G698" t="n">
         <v>1416.0</v>
@@ -29837,7 +29837,7 @@
         <v>8.0</v>
       </c>
       <c r="F702" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G702" t="n">
         <v>1248.0</v>
@@ -29878,7 +29878,7 @@
         <v>4.0</v>
       </c>
       <c r="F703" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G703" t="n">
         <v>308.0</v>
@@ -30042,7 +30042,7 @@
         <v>4.0</v>
       </c>
       <c r="F707" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G707" t="n">
         <v>152.0</v>
@@ -30124,7 +30124,7 @@
         <v>4.0</v>
       </c>
       <c r="F709" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G709" t="n">
         <v>16.0</v>
@@ -30165,7 +30165,7 @@
         <v>4.0</v>
       </c>
       <c r="F710" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G710" t="n">
         <v>20.0</v>
@@ -30206,7 +30206,7 @@
         <v>4.0</v>
       </c>
       <c r="F711" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G711" t="n">
         <v>20.0</v>
@@ -30247,7 +30247,7 @@
         <v>4.0</v>
       </c>
       <c r="F712" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G712" t="n">
         <v>8.0</v>
@@ -30288,7 +30288,7 @@
         <v>12.0</v>
       </c>
       <c r="F713" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G713" t="n">
         <v>40.0</v>
@@ -30370,7 +30370,7 @@
         <v>4.0</v>
       </c>
       <c r="F715" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G715" t="n">
         <v>16.0</v>
@@ -30452,7 +30452,7 @@
         <v>4.0</v>
       </c>
       <c r="F717" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G717" t="n">
         <v>216.0</v>
@@ -30534,7 +30534,7 @@
         <v>4.0</v>
       </c>
       <c r="F719" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G719" t="n">
         <v>32.0</v>
@@ -30575,7 +30575,7 @@
         <v>4.0</v>
       </c>
       <c r="F720" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G720" t="n">
         <v>20.0</v>
@@ -30657,7 +30657,7 @@
         <v>12.0</v>
       </c>
       <c r="F722" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G722" t="n">
         <v>60.0</v>
@@ -30698,7 +30698,7 @@
         <v>4.0</v>
       </c>
       <c r="F723" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G723" t="n">
         <v>12.0</v>
@@ -30903,7 +30903,7 @@
         <v>8.0</v>
       </c>
       <c r="F728" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G728" t="n">
         <v>8.0</v>
@@ -30985,7 +30985,7 @@
         <v>4.0</v>
       </c>
       <c r="F730" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G730" t="n">
         <v>12.0</v>
@@ -31108,7 +31108,7 @@
         <v>20.0</v>
       </c>
       <c r="F733" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G733" t="n">
         <v>104.0</v>
@@ -31682,7 +31682,7 @@
         <v>8.0</v>
       </c>
       <c r="F747" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G747" t="n">
         <v>24.0</v>
@@ -31764,7 +31764,7 @@
         <v>8.0</v>
       </c>
       <c r="F749" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G749" t="n">
         <v>68.0</v>
@@ -32174,7 +32174,7 @@
         <v>4.0</v>
       </c>
       <c r="F759" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G759" t="n">
         <v>20.0</v>
@@ -32215,7 +32215,7 @@
         <v>8.0</v>
       </c>
       <c r="F760" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G760" t="n">
         <v>180.0</v>
@@ -32297,7 +32297,7 @@
         <v>4.0</v>
       </c>
       <c r="F762" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G762" t="n">
         <v>144.0</v>
@@ -32338,7 +32338,7 @@
         <v>4.0</v>
       </c>
       <c r="F763" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G763" t="n">
         <v>12.0</v>
@@ -32420,7 +32420,7 @@
         <v>4.0</v>
       </c>
       <c r="F765" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G765" t="n">
         <v>84.0</v>
@@ -32666,7 +32666,7 @@
         <v>8.0</v>
       </c>
       <c r="F771" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G771" t="n">
         <v>16.0</v>
@@ -32707,7 +32707,7 @@
         <v>24.0</v>
       </c>
       <c r="F772" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G772" t="n">
         <v>80.0</v>
@@ -32830,7 +32830,7 @@
         <v>4.0</v>
       </c>
       <c r="F775" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G775" t="n">
         <v>4.0</v>
@@ -32953,7 +32953,7 @@
         <v>8.0</v>
       </c>
       <c r="F778" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G778" t="n">
         <v>8.0</v>
@@ -33117,7 +33117,7 @@
         <v>4.0</v>
       </c>
       <c r="F782" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G782" t="n">
         <v>24.0</v>
@@ -33240,7 +33240,7 @@
         <v>4.0</v>
       </c>
       <c r="F785" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G785" t="n">
         <v>4.0</v>
@@ -33855,7 +33855,7 @@
         <v>4.0</v>
       </c>
       <c r="F800" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G800" t="n">
         <v>12.0</v>
@@ -33937,7 +33937,7 @@
         <v>4.0</v>
       </c>
       <c r="F802" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G802" t="n">
         <v>12.0</v>
@@ -33978,7 +33978,7 @@
         <v>8.0</v>
       </c>
       <c r="F803" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G803" t="n">
         <v>748.0</v>
@@ -34019,7 +34019,7 @@
         <v>8.0</v>
       </c>
       <c r="F804" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G804" t="n">
         <v>60.0</v>
@@ -34060,7 +34060,7 @@
         <v>8.0</v>
       </c>
       <c r="F805" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G805" t="n">
         <v>8.0</v>
@@ -34101,7 +34101,7 @@
         <v>4.0</v>
       </c>
       <c r="F806" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G806" t="n">
         <v>0.0</v>
@@ -34224,7 +34224,7 @@
         <v>4.0</v>
       </c>
       <c r="F809" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G809" t="n">
         <v>0.0</v>
@@ -34265,7 +34265,7 @@
         <v>12.0</v>
       </c>
       <c r="F810" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G810" t="n">
         <v>320.0</v>
@@ -34306,7 +34306,7 @@
         <v>4.0</v>
       </c>
       <c r="F811" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G811" t="n">
         <v>0.0</v>
@@ -34347,7 +34347,7 @@
         <v>8.0</v>
       </c>
       <c r="F812" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G812" t="n">
         <v>32.0</v>
@@ -34388,7 +34388,7 @@
         <v>4.0</v>
       </c>
       <c r="F813" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G813" t="n">
         <v>12.0</v>
@@ -34593,7 +34593,7 @@
         <v>4.0</v>
       </c>
       <c r="F818" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G818" t="n">
         <v>8.0</v>
@@ -34880,7 +34880,7 @@
         <v>4.0</v>
       </c>
       <c r="F825" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G825" t="n">
         <v>36.0</v>
@@ -34962,7 +34962,7 @@
         <v>4.0</v>
       </c>
       <c r="F827" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G827" t="n">
         <v>16.0</v>
@@ -35495,7 +35495,7 @@
         <v>4.0</v>
       </c>
       <c r="F840" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G840" t="n">
         <v>12.0</v>
@@ -35700,7 +35700,7 @@
         <v>4.0</v>
       </c>
       <c r="F845" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G845" t="n">
         <v>16.0</v>
@@ -35741,7 +35741,7 @@
         <v>4.0</v>
       </c>
       <c r="F846" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G846" t="n">
         <v>32.0</v>
@@ -36889,7 +36889,7 @@
         <v>4.0</v>
       </c>
       <c r="F874" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G874" t="n">
         <v>4.0</v>
@@ -37135,7 +37135,7 @@
         <v>4.0</v>
       </c>
       <c r="F880" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G880" t="n">
         <v>4.0</v>
@@ -37586,7 +37586,7 @@
         <v>4.0</v>
       </c>
       <c r="F891" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G891" t="n">
         <v>8.0</v>
@@ -38775,7 +38775,7 @@
         <v>8.0</v>
       </c>
       <c r="F920" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G920" t="n">
         <v>32.0</v>
@@ -38816,7 +38816,7 @@
         <v>4.0</v>
       </c>
       <c r="F921" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G921" t="n">
         <v>36.0</v>
@@ -38857,7 +38857,7 @@
         <v>4.0</v>
       </c>
       <c r="F922" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G922" t="n">
         <v>8.0</v>
@@ -38898,7 +38898,7 @@
         <v>4.0</v>
       </c>
       <c r="F923" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G923" t="n">
         <v>12.0</v>
@@ -39062,7 +39062,7 @@
         <v>4.0</v>
       </c>
       <c r="F927" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G927" t="n">
         <v>8.0</v>
@@ -39103,7 +39103,7 @@
         <v>4.0</v>
       </c>
       <c r="F928" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G928" t="n">
         <v>8.0</v>
@@ -39185,7 +39185,7 @@
         <v>12.0</v>
       </c>
       <c r="F930" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G930" t="n">
         <v>180.0</v>
@@ -39513,7 +39513,7 @@
         <v>12.0</v>
       </c>
       <c r="F938" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G938" t="n">
         <v>844.0</v>
@@ -40128,7 +40128,7 @@
         <v>4.0</v>
       </c>
       <c r="F953" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G953" t="n">
         <v>12.0</v>
@@ -40210,7 +40210,7 @@
         <v>4.0</v>
       </c>
       <c r="F955" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G955" t="n">
         <v>24.0</v>
@@ -40374,7 +40374,7 @@
         <v>8.0</v>
       </c>
       <c r="F959" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G959" t="n">
         <v>40.0</v>
@@ -40415,7 +40415,7 @@
         <v>4.0</v>
       </c>
       <c r="F960" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G960" t="n">
         <v>4.0</v>
@@ -40620,7 +40620,7 @@
         <v>4.0</v>
       </c>
       <c r="F965" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G965" t="n">
         <v>12.0</v>
@@ -40661,7 +40661,7 @@
         <v>4.0</v>
       </c>
       <c r="F966" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G966" t="n">
         <v>8.0</v>
@@ -40866,7 +40866,7 @@
         <v>4.0</v>
       </c>
       <c r="F971" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G971" t="n">
         <v>12.0</v>
@@ -41686,7 +41686,7 @@
         <v>4.0</v>
       </c>
       <c r="F991" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G991" t="n">
         <v>20.0</v>
@@ -41973,7 +41973,7 @@
         <v>4.0</v>
       </c>
       <c r="F998" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G998" t="n">
         <v>32.0</v>
@@ -42260,7 +42260,7 @@
         <v>4.0</v>
       </c>
       <c r="F1005" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G1005" t="n">
         <v>348.0</v>
@@ -42424,7 +42424,7 @@
         <v>4.0</v>
       </c>
       <c r="F1009" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G1009" t="n">
         <v>8.0</v>
@@ -42465,7 +42465,7 @@
         <v>4.0</v>
       </c>
       <c r="F1010" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G1010" t="n">
         <v>32.0</v>
@@ -42547,7 +42547,7 @@
         <v>4.0</v>
       </c>
       <c r="F1012" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G1012" t="n">
         <v>8.0</v>
@@ -42588,7 +42588,7 @@
         <v>4.0</v>
       </c>
       <c r="F1013" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G1013" t="n">
         <v>20.0</v>
@@ -42629,7 +42629,7 @@
         <v>8.0</v>
       </c>
       <c r="F1014" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G1014" t="n">
         <v>32.0</v>
@@ -42793,7 +42793,7 @@
         <v>4.0</v>
       </c>
       <c r="F1018" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G1018" t="n">
         <v>4.0</v>
